--- a/data/raw_data/vegetation/241111_TEMPEST2_water_potentials.xlsx
+++ b/data/raw_data/vegetation/241111_TEMPEST2_water_potentials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/GitHub/COMPASS-DOE/tempest2_do/data/raw_data/vegetation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="776" documentId="8_{D643C4A0-451E-184F-B9F1-0C02D3C5DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B5F919-366E-C448-AB47-341D0C7E38B3}"/>
+  <xr:revisionPtr revIDLastSave="821" documentId="8_{D643C4A0-451E-184F-B9F1-0C02D3C5DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E17E490-899A-0B45-8C41-92166C404551}"/>
   <bookViews>
-    <workbookView xWindow="34220" yWindow="500" windowWidth="20200" windowHeight="19760" xr2:uid="{DD320B44-C0DC-1A4D-8312-11C1ED59FF4A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17040" xr2:uid="{DD320B44-C0DC-1A4D-8312-11C1ED59FF4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>S18</t>
-  </si>
-  <si>
-    <t>F19</t>
   </si>
   <si>
     <t>Time</t>
@@ -500,11 +497,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9031D31-7FEF-E44D-A258-C9AD138A55AA}">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>40</v>
       </c>
       <c r="E27">
-        <v>101</v>
+        <v>1301</v>
       </c>
       <c r="F27">
         <v>1.21</v>
@@ -1141,7 +1141,7 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>103</v>
+        <v>1303</v>
       </c>
       <c r="F28">
         <v>1.39</v>
@@ -1164,7 +1164,7 @@
         <v>38</v>
       </c>
       <c r="E29">
-        <v>104</v>
+        <v>1304</v>
       </c>
       <c r="F29">
         <v>1.24</v>
@@ -1187,7 +1187,7 @@
         <v>37</v>
       </c>
       <c r="E30">
-        <v>106</v>
+        <v>1306</v>
       </c>
       <c r="F30">
         <v>1.27</v>
@@ -1210,7 +1210,7 @@
         <v>36</v>
       </c>
       <c r="E31">
-        <v>108</v>
+        <v>1308</v>
       </c>
       <c r="F31">
         <v>1.51</v>
@@ -1233,7 +1233,7 @@
         <v>40</v>
       </c>
       <c r="E32">
-        <v>111</v>
+        <v>1311</v>
       </c>
       <c r="F32">
         <v>1.72</v>
@@ -1256,7 +1256,7 @@
         <v>35</v>
       </c>
       <c r="E33">
-        <v>113</v>
+        <v>1313</v>
       </c>
       <c r="F33">
         <v>1.25</v>
@@ -1279,7 +1279,7 @@
         <v>34</v>
       </c>
       <c r="E34">
-        <v>115</v>
+        <v>1315</v>
       </c>
       <c r="F34">
         <v>1.21</v>
@@ -1302,7 +1302,7 @@
         <v>33</v>
       </c>
       <c r="E35">
-        <v>117</v>
+        <v>1317</v>
       </c>
       <c r="F35">
         <v>1.33</v>
@@ -1325,7 +1325,7 @@
         <v>32</v>
       </c>
       <c r="E36">
-        <v>120</v>
+        <v>1320</v>
       </c>
       <c r="F36">
         <v>0.94</v>
@@ -1348,7 +1348,7 @@
         <v>31</v>
       </c>
       <c r="E37">
-        <v>121</v>
+        <v>1321</v>
       </c>
       <c r="F37">
         <v>2.4500000000000002</v>
@@ -1371,7 +1371,7 @@
         <v>30</v>
       </c>
       <c r="E38">
-        <v>123</v>
+        <v>1323</v>
       </c>
       <c r="F38">
         <v>1.05</v>
@@ -1394,7 +1394,7 @@
         <v>29</v>
       </c>
       <c r="E39">
-        <v>125</v>
+        <v>1325</v>
       </c>
       <c r="F39">
         <v>1.0900000000000001</v>
@@ -1417,7 +1417,7 @@
         <v>31</v>
       </c>
       <c r="E40">
-        <v>127</v>
+        <v>1327</v>
       </c>
       <c r="F40">
         <v>1.68</v>
@@ -1440,7 +1440,7 @@
         <v>32</v>
       </c>
       <c r="E41">
-        <v>129</v>
+        <v>1329</v>
       </c>
       <c r="F41">
         <v>0.99</v>
@@ -1463,7 +1463,7 @@
         <v>33</v>
       </c>
       <c r="E42">
-        <v>130</v>
+        <v>1330</v>
       </c>
       <c r="F42">
         <v>0.81</v>
@@ -1486,7 +1486,7 @@
         <v>34</v>
       </c>
       <c r="E43">
-        <v>133</v>
+        <v>1333</v>
       </c>
       <c r="F43">
         <v>1.85</v>
@@ -1509,7 +1509,7 @@
         <v>35</v>
       </c>
       <c r="E44">
-        <v>137</v>
+        <v>1337</v>
       </c>
       <c r="F44">
         <v>1.98</v>
@@ -1532,7 +1532,7 @@
         <v>36</v>
       </c>
       <c r="E45">
-        <v>138</v>
+        <v>1338</v>
       </c>
       <c r="F45">
         <v>1.2</v>
@@ -1555,7 +1555,7 @@
         <v>37</v>
       </c>
       <c r="E46">
-        <v>140</v>
+        <v>1340</v>
       </c>
       <c r="F46">
         <v>0.86</v>
@@ -1578,7 +1578,7 @@
         <v>38</v>
       </c>
       <c r="E47">
-        <v>142</v>
+        <v>1342</v>
       </c>
       <c r="F47">
         <v>1.1499999999999999</v>
@@ -1601,7 +1601,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>144</v>
+        <v>1344</v>
       </c>
       <c r="F48">
         <v>1.57</v>
@@ -2400,7 +2400,7 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>76</v>
@@ -2503,10 +2503,10 @@
         <v>45090</v>
       </c>
       <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" t="s">
         <v>23</v>
-      </c>
-      <c r="C88" t="s">
-        <v>24</v>
       </c>
       <c r="E88">
         <v>535</v>
@@ -2623,10 +2623,10 @@
         <v>45090</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E94">
         <v>549</v>
@@ -2683,10 +2683,10 @@
         <v>45090</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E97">
         <v>553</v>
@@ -2723,10 +2723,10 @@
         <v>45090</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E99">
         <v>555</v>
@@ -2743,10 +2743,10 @@
         <v>45090</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E100">
         <v>557</v>
@@ -2783,10 +2783,10 @@
         <v>45090</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E102">
         <v>559</v>
@@ -4077,7 +4077,7 @@
         <v>7</v>
       </c>
       <c r="E164">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="F164">
         <v>1.1000000000000001</v>
@@ -4100,7 +4100,7 @@
         <v>43</v>
       </c>
       <c r="E165">
-        <v>104</v>
+        <v>1304</v>
       </c>
       <c r="F165">
         <v>2.1</v>
@@ -4123,7 +4123,7 @@
         <v>45</v>
       </c>
       <c r="E166">
-        <v>108</v>
+        <v>1308</v>
       </c>
       <c r="F166">
         <v>1.38</v>
@@ -4146,7 +4146,7 @@
         <v>44</v>
       </c>
       <c r="E167">
-        <v>111</v>
+        <v>1311</v>
       </c>
       <c r="F167">
         <v>1.48</v>
@@ -4169,7 +4169,7 @@
         <v>47</v>
       </c>
       <c r="E168">
-        <v>113</v>
+        <v>1313</v>
       </c>
       <c r="F168">
         <v>1.1000000000000001</v>
@@ -4192,7 +4192,7 @@
         <v>42</v>
       </c>
       <c r="E169">
-        <v>115</v>
+        <v>1315</v>
       </c>
       <c r="F169">
         <v>1.25</v>
@@ -4215,7 +4215,7 @@
         <v>43</v>
       </c>
       <c r="E170">
-        <v>117</v>
+        <v>1317</v>
       </c>
       <c r="F170">
         <v>1.3</v>
@@ -4238,7 +4238,7 @@
         <v>49</v>
       </c>
       <c r="E171">
-        <v>119</v>
+        <v>1319</v>
       </c>
       <c r="F171">
         <v>0.93</v>
@@ -4261,7 +4261,7 @@
         <v>46</v>
       </c>
       <c r="E172">
-        <v>120</v>
+        <v>1320</v>
       </c>
       <c r="F172">
         <v>1.1499999999999999</v>
@@ -4284,7 +4284,7 @@
         <v>50</v>
       </c>
       <c r="E173">
-        <v>241</v>
+        <v>1441</v>
       </c>
       <c r="F173">
         <v>1.55</v>
@@ -4307,7 +4307,7 @@
         <v>49</v>
       </c>
       <c r="E174">
-        <v>245</v>
+        <v>1445</v>
       </c>
       <c r="F174">
         <v>1.58</v>
@@ -4330,7 +4330,7 @@
         <v>53</v>
       </c>
       <c r="E175">
-        <v>247</v>
+        <v>1447</v>
       </c>
       <c r="F175">
         <v>1.45</v>
@@ -4353,7 +4353,7 @@
         <v>52</v>
       </c>
       <c r="E176">
-        <v>249</v>
+        <v>1449</v>
       </c>
       <c r="F176">
         <v>1.45</v>
@@ -4376,7 +4376,7 @@
         <v>61</v>
       </c>
       <c r="E177">
-        <v>251</v>
+        <v>1451</v>
       </c>
       <c r="F177">
         <v>1.35</v>
@@ -4399,7 +4399,7 @@
         <v>60</v>
       </c>
       <c r="E178">
-        <v>253</v>
+        <v>1453</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -4422,7 +4422,7 @@
         <v>51</v>
       </c>
       <c r="E179">
-        <v>254</v>
+        <v>1454</v>
       </c>
       <c r="F179">
         <v>1.25</v>
@@ -4445,7 +4445,7 @@
         <v>53</v>
       </c>
       <c r="E180">
-        <v>258</v>
+        <v>1458</v>
       </c>
       <c r="F180">
         <v>1.7</v>
@@ -4455,92 +4455,37 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>45090</v>
-      </c>
-      <c r="G181">
-        <v>6</v>
-      </c>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
-        <v>45090</v>
-      </c>
-      <c r="G182">
-        <v>6</v>
-      </c>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
-        <v>45090</v>
-      </c>
-      <c r="G183">
-        <v>6</v>
-      </c>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
-        <v>45090</v>
-      </c>
-      <c r="G184">
-        <v>6</v>
-      </c>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
-        <v>45090</v>
-      </c>
-      <c r="G185">
-        <v>6</v>
-      </c>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
-        <v>45090</v>
-      </c>
-      <c r="G186">
-        <v>6</v>
-      </c>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
-        <v>45090</v>
-      </c>
-      <c r="G187">
-        <v>6</v>
-      </c>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
-        <v>45090</v>
-      </c>
-      <c r="G188">
-        <v>6</v>
-      </c>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
-        <v>45090</v>
-      </c>
-      <c r="G189">
-        <v>6</v>
-      </c>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
-        <v>45090</v>
-      </c>
-      <c r="G190">
-        <v>6</v>
-      </c>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
-        <v>45090</v>
-      </c>
-      <c r="G191">
-        <v>6</v>
-      </c>
+      <c r="A191" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw_data/vegetation/241111_TEMPEST2_water_potentials.xlsx
+++ b/data/raw_data/vegetation/241111_TEMPEST2_water_potentials.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/GitHub/COMPASS-DOE/tempest2_do/data/raw_data/vegetation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="821" documentId="8_{D643C4A0-451E-184F-B9F1-0C02D3C5DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E17E490-899A-0B45-8C41-92166C404551}"/>
+  <xr:revisionPtr revIDLastSave="1373" documentId="8_{D643C4A0-451E-184F-B9F1-0C02D3C5DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC67255-B0AA-B84C-A606-2258214973A1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17040" xr2:uid="{DD320B44-C0DC-1A4D-8312-11C1ED59FF4A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{DD320B44-C0DC-1A4D-8312-11C1ED59FF4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$297</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -124,15 +127,63 @@
   <si>
     <t>C13</t>
   </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>21/22</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>too small to bomb</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>92,93</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,9 +209,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9031D31-7FEF-E44D-A258-C9AD138A55AA}">
-  <dimension ref="A1:G191"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +558,7 @@
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +580,11 @@
       <c r="G1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45090</v>
       </c>
@@ -552,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45090</v>
       </c>
@@ -575,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45090</v>
       </c>
@@ -598,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45090</v>
       </c>
@@ -621,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45090</v>
       </c>
@@ -644,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45090</v>
       </c>
@@ -667,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45090</v>
       </c>
@@ -690,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45090</v>
       </c>
@@ -713,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45090</v>
       </c>
@@ -736,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45090</v>
       </c>
@@ -759,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45090</v>
       </c>
@@ -782,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45090</v>
       </c>
@@ -805,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45090</v>
       </c>
@@ -828,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45090</v>
       </c>
@@ -851,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45090</v>
       </c>
@@ -4455,39 +4510,2659 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>807</v>
+      </c>
+      <c r="F181">
+        <v>0.93</v>
+      </c>
+      <c r="G181" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B182" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>808</v>
+      </c>
+      <c r="F182">
+        <v>1.23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="1"/>
+      <c r="A183" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+      <c r="E183">
+        <v>809</v>
+      </c>
+      <c r="F183">
+        <v>0.98</v>
+      </c>
+      <c r="G183" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B184" t="s">
+        <v>22</v>
+      </c>
+      <c r="C184" t="s">
+        <v>26</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184">
+        <v>812</v>
+      </c>
+      <c r="F184">
+        <v>1.06</v>
+      </c>
+      <c r="G184" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="1"/>
+      <c r="A185" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B185" t="s">
+        <v>22</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+      <c r="E185">
+        <v>813</v>
+      </c>
+      <c r="F185">
+        <v>0.96</v>
+      </c>
+      <c r="G185" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="1"/>
+      <c r="A186" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B186" t="s">
+        <v>22</v>
+      </c>
+      <c r="C186" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186">
+        <v>6</v>
+      </c>
+      <c r="E186">
+        <v>814</v>
+      </c>
+      <c r="F186">
+        <v>0.87</v>
+      </c>
+      <c r="G186" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B187" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" t="s">
+        <v>23</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+      <c r="E187">
+        <v>835</v>
+      </c>
+      <c r="F187">
+        <v>0.86</v>
+      </c>
+      <c r="G187" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="1"/>
+      <c r="A188" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B188" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
+      </c>
+      <c r="E188">
+        <v>834</v>
+      </c>
+      <c r="F188">
+        <v>1.56</v>
+      </c>
+      <c r="G188" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B189" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189">
+        <v>9</v>
+      </c>
+      <c r="E189">
+        <v>834</v>
+      </c>
+      <c r="F189">
+        <v>0.72</v>
+      </c>
+      <c r="G189" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="1"/>
+      <c r="A190" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="C190" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190">
+        <v>10</v>
+      </c>
+      <c r="E190">
+        <v>836</v>
+      </c>
+      <c r="F190">
+        <v>0.67</v>
+      </c>
+      <c r="G190" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B191" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191">
+        <v>11</v>
+      </c>
+      <c r="E191">
+        <v>838</v>
+      </c>
+      <c r="F191">
+        <v>1.03</v>
+      </c>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B192" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192">
+        <v>12</v>
+      </c>
+      <c r="E192">
+        <v>840</v>
+      </c>
+      <c r="F192">
+        <v>0.98</v>
+      </c>
+      <c r="G192" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B193" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193">
+        <v>844</v>
+      </c>
+      <c r="F193">
+        <v>0.93</v>
+      </c>
+      <c r="G193" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B194" t="s">
+        <v>22</v>
+      </c>
+      <c r="C194" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194">
+        <v>846</v>
+      </c>
+      <c r="F194">
+        <v>0.87</v>
+      </c>
+      <c r="G194" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" t="s">
+        <v>25</v>
+      </c>
+      <c r="E195">
+        <v>849</v>
+      </c>
+      <c r="F195">
+        <v>0.96</v>
+      </c>
+      <c r="G195" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B196" t="s">
+        <v>22</v>
+      </c>
+      <c r="C196" t="s">
+        <v>26</v>
+      </c>
+      <c r="E196">
+        <v>853</v>
+      </c>
+      <c r="F196">
+        <v>1.06</v>
+      </c>
+      <c r="G196" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B197" t="s">
+        <v>22</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197">
+        <v>856</v>
+      </c>
+      <c r="F197">
+        <v>0.98</v>
+      </c>
+      <c r="G197" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B198" t="s">
+        <v>22</v>
+      </c>
+      <c r="C198" t="s">
+        <v>27</v>
+      </c>
+      <c r="E198">
+        <v>900</v>
+      </c>
+      <c r="F198">
+        <v>1.23</v>
+      </c>
+      <c r="G198" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B199" t="s">
+        <v>22</v>
+      </c>
+      <c r="C199" t="s">
+        <v>23</v>
+      </c>
+      <c r="E199">
+        <v>914</v>
+      </c>
+      <c r="F199">
+        <v>0.86</v>
+      </c>
+      <c r="G199" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B200" t="s">
+        <v>22</v>
+      </c>
+      <c r="C200" t="s">
+        <v>27</v>
+      </c>
+      <c r="E200">
+        <v>918</v>
+      </c>
+      <c r="F200">
+        <v>1.56</v>
+      </c>
+      <c r="G200" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B201" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201">
+        <v>923</v>
+      </c>
+      <c r="F201">
+        <v>0.72</v>
+      </c>
+      <c r="G201" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B202" t="s">
+        <v>22</v>
+      </c>
+      <c r="C202" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202">
+        <v>926</v>
+      </c>
+      <c r="F202">
+        <v>0.67</v>
+      </c>
+      <c r="G202" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B203" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" t="s">
+        <v>24</v>
+      </c>
+      <c r="E203">
+        <v>932</v>
+      </c>
+      <c r="F203">
+        <v>1.03</v>
+      </c>
+      <c r="G203" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B204" t="s">
+        <v>22</v>
+      </c>
+      <c r="C204" t="s">
+        <v>26</v>
+      </c>
+      <c r="E204">
+        <v>934</v>
+      </c>
+      <c r="F204">
+        <v>0.98</v>
+      </c>
+      <c r="G204" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B205" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" t="s">
+        <v>23</v>
+      </c>
+      <c r="D205">
+        <v>12</v>
+      </c>
+      <c r="E205">
+        <v>902</v>
+      </c>
+      <c r="F205">
+        <v>0.72</v>
+      </c>
+      <c r="G205" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B206" t="s">
+        <v>22</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206">
+        <v>13</v>
+      </c>
+      <c r="E206">
+        <v>904</v>
+      </c>
+      <c r="F206">
+        <v>0.68</v>
+      </c>
+      <c r="G206" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B207" t="s">
+        <v>22</v>
+      </c>
+      <c r="C207" t="s">
+        <v>27</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207">
+        <v>905</v>
+      </c>
+      <c r="F207">
+        <v>1.03</v>
+      </c>
+      <c r="G207" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B208" t="s">
+        <v>22</v>
+      </c>
+      <c r="C208" t="s">
+        <v>25</v>
+      </c>
+      <c r="D208">
+        <v>15</v>
+      </c>
+      <c r="E208">
+        <v>906</v>
+      </c>
+      <c r="F208">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G208" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B209" t="s">
+        <v>22</v>
+      </c>
+      <c r="C209" t="s">
+        <v>26</v>
+      </c>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209">
+        <v>907</v>
+      </c>
+      <c r="F209">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G209" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B210" t="s">
+        <v>22</v>
+      </c>
+      <c r="C210" t="s">
+        <v>24</v>
+      </c>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210">
+        <v>908</v>
+      </c>
+      <c r="F210">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G210" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B211" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" t="s">
+        <v>26</v>
+      </c>
+      <c r="D211">
+        <v>18</v>
+      </c>
+      <c r="E211">
+        <v>930</v>
+      </c>
+      <c r="F211">
+        <v>0.95</v>
+      </c>
+      <c r="G211" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B212" t="s">
+        <v>22</v>
+      </c>
+      <c r="C212" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="E212">
+        <v>932</v>
+      </c>
+      <c r="F212">
+        <v>1.3</v>
+      </c>
+      <c r="G212" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B213" t="s">
+        <v>22</v>
+      </c>
+      <c r="C213" t="s">
+        <v>24</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213">
+        <v>933</v>
+      </c>
+      <c r="F213">
+        <v>1.33</v>
+      </c>
+      <c r="G213" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B214" t="s">
+        <v>22</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>31</v>
+      </c>
+      <c r="E214">
+        <v>935</v>
+      </c>
+      <c r="F214">
+        <v>1.53</v>
+      </c>
+      <c r="G214" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B215" t="s">
+        <v>22</v>
+      </c>
+      <c r="C215" t="s">
+        <v>27</v>
+      </c>
+      <c r="D215">
+        <v>23</v>
+      </c>
+      <c r="E215">
+        <v>936</v>
+      </c>
+      <c r="F215">
+        <v>1.6</v>
+      </c>
+      <c r="G215" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B216" t="s">
+        <v>22</v>
+      </c>
+      <c r="C216" t="s">
+        <v>23</v>
+      </c>
+      <c r="D216">
+        <v>24</v>
+      </c>
+      <c r="E216">
+        <v>937</v>
+      </c>
+      <c r="F216">
+        <v>1.88</v>
+      </c>
+      <c r="G216" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B217" t="s">
+        <v>22</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217">
+        <v>24</v>
+      </c>
+      <c r="E217">
+        <v>959</v>
+      </c>
+      <c r="F217">
+        <v>1.21</v>
+      </c>
+      <c r="G217" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B218" t="s">
+        <v>22</v>
+      </c>
+      <c r="C218" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218">
+        <v>25</v>
+      </c>
+      <c r="E218">
+        <v>1000</v>
+      </c>
+      <c r="F218">
+        <v>1.84</v>
+      </c>
+      <c r="G218" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B219" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" t="s">
+        <v>25</v>
+      </c>
+      <c r="D219">
+        <v>26</v>
+      </c>
+      <c r="E219">
+        <v>1002</v>
+      </c>
+      <c r="F219">
+        <v>1.18</v>
+      </c>
+      <c r="G219" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B220" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220" t="s">
+        <v>26</v>
+      </c>
+      <c r="D220">
+        <v>27</v>
+      </c>
+      <c r="E220">
+        <v>1003</v>
+      </c>
+      <c r="F220">
+        <v>0.82</v>
+      </c>
+      <c r="G220" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B221" t="s">
+        <v>22</v>
+      </c>
+      <c r="C221" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221">
+        <v>28</v>
+      </c>
+      <c r="E221">
+        <v>1007</v>
+      </c>
+      <c r="F221">
+        <v>1.27</v>
+      </c>
+      <c r="G221" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B222" t="s">
+        <v>22</v>
+      </c>
+      <c r="C222" t="s">
+        <v>24</v>
+      </c>
+      <c r="D222">
+        <v>29</v>
+      </c>
+      <c r="E222">
+        <v>1005</v>
+      </c>
+      <c r="F222">
+        <v>1.48</v>
+      </c>
+      <c r="G222" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B223" t="s">
+        <v>22</v>
+      </c>
+      <c r="C223" t="s">
+        <v>26</v>
+      </c>
+      <c r="D223">
+        <v>30</v>
+      </c>
+      <c r="E223">
+        <v>1031</v>
+      </c>
+      <c r="F223">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G223" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B224" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224" t="s">
+        <v>25</v>
+      </c>
+      <c r="D224">
+        <v>31</v>
+      </c>
+      <c r="E224">
+        <v>1032</v>
+      </c>
+      <c r="F224">
+        <v>0.89</v>
+      </c>
+      <c r="G224" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B225" t="s">
+        <v>22</v>
+      </c>
+      <c r="C225" t="s">
+        <v>23</v>
+      </c>
+      <c r="D225">
+        <v>32</v>
+      </c>
+      <c r="E225">
+        <v>1035</v>
+      </c>
+      <c r="F225">
+        <v>1.01</v>
+      </c>
+      <c r="G225" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B226" t="s">
+        <v>22</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226">
+        <v>33</v>
+      </c>
+      <c r="E226">
+        <v>1036</v>
+      </c>
+      <c r="F226">
+        <v>0.99</v>
+      </c>
+      <c r="G226" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B227" t="s">
+        <v>22</v>
+      </c>
+      <c r="C227" t="s">
+        <v>27</v>
+      </c>
+      <c r="D227">
+        <v>34</v>
+      </c>
+      <c r="E227">
+        <v>1037</v>
+      </c>
+      <c r="F227">
+        <v>1.52</v>
+      </c>
+      <c r="G227" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B228" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" t="s">
+        <v>24</v>
+      </c>
+      <c r="D228">
+        <v>34</v>
+      </c>
+      <c r="E228">
+        <v>1227</v>
+      </c>
+      <c r="F228">
+        <v>1.2</v>
+      </c>
+      <c r="G228" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B229" t="s">
+        <v>22</v>
+      </c>
+      <c r="C229" t="s">
+        <v>27</v>
+      </c>
+      <c r="D229">
+        <v>35</v>
+      </c>
+      <c r="E229" s="2">
+        <v>1229</v>
+      </c>
+      <c r="F229">
+        <v>1.47</v>
+      </c>
+      <c r="G229" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B230" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230">
+        <v>36</v>
+      </c>
+      <c r="E230">
+        <v>1239</v>
+      </c>
+      <c r="F230">
+        <v>1.61</v>
+      </c>
+      <c r="G230" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B231" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" t="s">
+        <v>23</v>
+      </c>
+      <c r="D231">
+        <v>37</v>
+      </c>
+      <c r="E231">
+        <v>1241</v>
+      </c>
+      <c r="F231">
+        <v>1.77</v>
+      </c>
+      <c r="G231" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B232" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232" t="s">
+        <v>25</v>
+      </c>
+      <c r="D232">
+        <v>38</v>
+      </c>
+      <c r="E232">
+        <v>1245</v>
+      </c>
+      <c r="F232">
+        <v>1.32</v>
+      </c>
+      <c r="G232" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B233" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" t="s">
+        <v>26</v>
+      </c>
+      <c r="D233">
+        <v>39</v>
+      </c>
+      <c r="E233">
+        <v>1243</v>
+      </c>
+      <c r="F233">
+        <v>0.89</v>
+      </c>
+      <c r="G233" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B234" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234">
+        <v>40</v>
+      </c>
+      <c r="E234">
+        <v>1247</v>
+      </c>
+      <c r="F234">
+        <v>1.34</v>
+      </c>
+      <c r="G234" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B235" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235">
+        <v>41</v>
+      </c>
+      <c r="E235">
+        <v>1214</v>
+      </c>
+      <c r="F235">
+        <v>1.64</v>
+      </c>
+      <c r="G235" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B236" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" t="s">
+        <v>27</v>
+      </c>
+      <c r="D236">
+        <v>42</v>
+      </c>
+      <c r="E236">
+        <v>1218</v>
+      </c>
+      <c r="F236">
+        <v>1.48</v>
+      </c>
+      <c r="G236" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B237" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237">
+        <v>43</v>
+      </c>
+      <c r="E237">
+        <v>1220</v>
+      </c>
+      <c r="F237">
+        <v>0.97</v>
+      </c>
+      <c r="G237" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B238" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238" t="s">
+        <v>24</v>
+      </c>
+      <c r="D238">
+        <v>44</v>
+      </c>
+      <c r="E238">
+        <v>1221</v>
+      </c>
+      <c r="F238">
+        <v>0.99</v>
+      </c>
+      <c r="G238" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239" t="s">
+        <v>26</v>
+      </c>
+      <c r="D239">
+        <v>45</v>
+      </c>
+      <c r="E239">
+        <v>1223</v>
+      </c>
+      <c r="F239">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G239" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B240" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240" t="s">
+        <v>23</v>
+      </c>
+      <c r="D240">
+        <v>46</v>
+      </c>
+      <c r="E240">
+        <v>1225</v>
+      </c>
+      <c r="F240">
+        <v>1.44</v>
+      </c>
+      <c r="G240" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B241" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+      <c r="D241">
+        <v>59</v>
+      </c>
+      <c r="E241">
+        <v>1300</v>
+      </c>
+      <c r="G241" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B242" t="s">
+        <v>22</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242">
+        <v>60</v>
+      </c>
+      <c r="E242">
+        <v>1304</v>
+      </c>
+      <c r="F242">
+        <v>1.55</v>
+      </c>
+      <c r="G242" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B243" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" t="s">
+        <v>27</v>
+      </c>
+      <c r="D243">
+        <v>61</v>
+      </c>
+      <c r="E243">
+        <v>1307</v>
+      </c>
+      <c r="F243">
+        <v>1.45</v>
+      </c>
+      <c r="G243" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B244" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" t="s">
+        <v>23</v>
+      </c>
+      <c r="D244">
+        <v>62</v>
+      </c>
+      <c r="E244">
+        <v>1309</v>
+      </c>
+      <c r="F244">
+        <v>1.4</v>
+      </c>
+      <c r="G244" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" t="s">
+        <v>24</v>
+      </c>
+      <c r="D245">
+        <v>63</v>
+      </c>
+      <c r="E245">
+        <v>1311</v>
+      </c>
+      <c r="F245">
+        <v>1.35</v>
+      </c>
+      <c r="G245" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B246" t="s">
+        <v>22</v>
+      </c>
+      <c r="C246" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246">
+        <v>64</v>
+      </c>
+      <c r="E246">
+        <v>1316</v>
+      </c>
+      <c r="F246">
+        <v>1.65</v>
+      </c>
+      <c r="G246" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B247" t="s">
+        <v>22</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247">
+        <v>65</v>
+      </c>
+      <c r="E247">
+        <v>1331</v>
+      </c>
+      <c r="F247">
+        <v>1.3</v>
+      </c>
+      <c r="G247" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B248" t="s">
+        <v>22</v>
+      </c>
+      <c r="C248" t="s">
+        <v>27</v>
+      </c>
+      <c r="D248">
+        <v>66</v>
+      </c>
+      <c r="E248">
+        <v>1333</v>
+      </c>
+      <c r="F248">
+        <v>1.28</v>
+      </c>
+      <c r="G248" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B249" t="s">
+        <v>22</v>
+      </c>
+      <c r="C249" t="s">
+        <v>23</v>
+      </c>
+      <c r="D249">
+        <v>67</v>
+      </c>
+      <c r="E249">
+        <v>1335</v>
+      </c>
+      <c r="F249">
+        <v>1.18</v>
+      </c>
+      <c r="G249" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B250" t="s">
+        <v>22</v>
+      </c>
+      <c r="C250" t="s">
+        <v>25</v>
+      </c>
+      <c r="D250">
+        <v>68</v>
+      </c>
+      <c r="E250">
+        <v>1336</v>
+      </c>
+      <c r="F250">
+        <v>1.35</v>
+      </c>
+      <c r="G250" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B251" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" t="s">
+        <v>26</v>
+      </c>
+      <c r="D251">
+        <v>69</v>
+      </c>
+      <c r="E251">
+        <v>1338</v>
+      </c>
+      <c r="F251">
+        <v>1.5</v>
+      </c>
+      <c r="G251" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B252" t="s">
+        <v>22</v>
+      </c>
+      <c r="C252" t="s">
+        <v>24</v>
+      </c>
+      <c r="D252">
+        <v>70</v>
+      </c>
+      <c r="E252">
+        <v>1341</v>
+      </c>
+      <c r="F252">
+        <v>1.5</v>
+      </c>
+      <c r="G252" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B253" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" t="s">
+        <v>11</v>
+      </c>
+      <c r="D253">
+        <v>54</v>
+      </c>
+      <c r="E253">
+        <v>300</v>
+      </c>
+      <c r="F253">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G253" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B254" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" t="s">
+        <v>18</v>
+      </c>
+      <c r="D254">
+        <v>55</v>
+      </c>
+      <c r="E254">
+        <v>302</v>
+      </c>
+      <c r="G254" t="s">
+        <v>36</v>
+      </c>
+      <c r="H254" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B255" t="s">
+        <v>22</v>
+      </c>
+      <c r="C255" t="s">
+        <v>26</v>
+      </c>
+      <c r="D255">
+        <v>47</v>
+      </c>
+      <c r="E255">
+        <v>1158</v>
+      </c>
+      <c r="F255">
+        <v>1.61</v>
+      </c>
+      <c r="G255" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B256" t="s">
+        <v>22</v>
+      </c>
+      <c r="C256" t="s">
+        <v>24</v>
+      </c>
+      <c r="D256">
+        <v>48</v>
+      </c>
+      <c r="E256">
+        <v>1159</v>
+      </c>
+      <c r="F256">
+        <v>1.83</v>
+      </c>
+      <c r="G256" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B257" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" t="s">
+        <v>23</v>
+      </c>
+      <c r="D257">
+        <v>49</v>
+      </c>
+      <c r="E257">
+        <v>1204</v>
+      </c>
+      <c r="F257">
+        <v>1.28</v>
+      </c>
+      <c r="G257" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B258" t="s">
+        <v>22</v>
+      </c>
+      <c r="C258" t="s">
+        <v>25</v>
+      </c>
+      <c r="D258">
+        <v>50</v>
+      </c>
+      <c r="E258">
+        <v>1205</v>
+      </c>
+      <c r="F258">
+        <v>1.33</v>
+      </c>
+      <c r="G258" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B259" t="s">
+        <v>22</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259">
+        <v>51</v>
+      </c>
+      <c r="E259">
+        <v>1213</v>
+      </c>
+      <c r="F259">
+        <v>1.31</v>
+      </c>
+      <c r="G259" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B260" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" t="s">
+        <v>27</v>
+      </c>
+      <c r="D260">
+        <v>52</v>
+      </c>
+      <c r="E260">
+        <v>1214</v>
+      </c>
+      <c r="F260">
+        <v>1.3</v>
+      </c>
+      <c r="G260" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B261" t="s">
+        <v>22</v>
+      </c>
+      <c r="C261" t="s">
+        <v>25</v>
+      </c>
+      <c r="D261">
+        <v>53</v>
+      </c>
+      <c r="E261">
+        <v>1231</v>
+      </c>
+      <c r="F261">
+        <v>1.3</v>
+      </c>
+      <c r="G261" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B262" t="s">
+        <v>22</v>
+      </c>
+      <c r="C262" t="s">
+        <v>24</v>
+      </c>
+      <c r="D262">
+        <v>54</v>
+      </c>
+      <c r="E262">
+        <v>1231</v>
+      </c>
+      <c r="F262">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G262" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B263" t="s">
+        <v>22</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263">
+        <v>55</v>
+      </c>
+      <c r="E263">
+        <v>1238</v>
+      </c>
+      <c r="F263">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G263" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B264" t="s">
+        <v>22</v>
+      </c>
+      <c r="C264" t="s">
+        <v>27</v>
+      </c>
+      <c r="D264">
+        <v>56</v>
+      </c>
+      <c r="E264">
+        <v>1239</v>
+      </c>
+      <c r="F264">
+        <v>1.3</v>
+      </c>
+      <c r="G264" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B265" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265">
+        <v>57</v>
+      </c>
+      <c r="E265">
+        <v>1244</v>
+      </c>
+      <c r="F265">
+        <v>1.25</v>
+      </c>
+      <c r="G265" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B266" t="s">
+        <v>22</v>
+      </c>
+      <c r="C266" t="s">
+        <v>23</v>
+      </c>
+      <c r="D266">
+        <v>58</v>
+      </c>
+      <c r="E266">
+        <v>1245</v>
+      </c>
+      <c r="F266">
+        <v>1.36</v>
+      </c>
+      <c r="G266" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B267" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267" t="s">
+        <v>23</v>
+      </c>
+      <c r="D267">
+        <v>71</v>
+      </c>
+      <c r="E267">
+        <v>1409</v>
+      </c>
+      <c r="F267">
+        <v>1.57</v>
+      </c>
+      <c r="G267" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B268" t="s">
+        <v>22</v>
+      </c>
+      <c r="C268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268">
+        <v>72</v>
+      </c>
+      <c r="E268">
+        <v>1412</v>
+      </c>
+      <c r="F268">
+        <v>1.55</v>
+      </c>
+      <c r="G268" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B269" t="s">
+        <v>22</v>
+      </c>
+      <c r="C269" t="s">
+        <v>25</v>
+      </c>
+      <c r="D269">
+        <v>73</v>
+      </c>
+      <c r="E269">
+        <v>1415</v>
+      </c>
+      <c r="F269">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G269" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B270" t="s">
+        <v>22</v>
+      </c>
+      <c r="C270" t="s">
+        <v>27</v>
+      </c>
+      <c r="D270">
+        <v>74</v>
+      </c>
+      <c r="E270">
+        <v>1417</v>
+      </c>
+      <c r="F270">
+        <v>1.25</v>
+      </c>
+      <c r="G270" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B271" t="s">
+        <v>22</v>
+      </c>
+      <c r="C271" t="s">
+        <v>26</v>
+      </c>
+      <c r="D271">
+        <v>75</v>
+      </c>
+      <c r="E271">
+        <v>1422</v>
+      </c>
+      <c r="F271">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G271" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B272" t="s">
+        <v>22</v>
+      </c>
+      <c r="C272" t="s">
+        <v>24</v>
+      </c>
+      <c r="D272">
+        <v>76</v>
+      </c>
+      <c r="E272">
+        <v>1425</v>
+      </c>
+      <c r="F272">
+        <v>1.25</v>
+      </c>
+      <c r="G272" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B273" t="s">
+        <v>22</v>
+      </c>
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273">
+        <v>77</v>
+      </c>
+      <c r="E273">
+        <v>1436</v>
+      </c>
+      <c r="F273">
+        <v>1.2</v>
+      </c>
+      <c r="G273" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B274" t="s">
+        <v>22</v>
+      </c>
+      <c r="C274" t="s">
+        <v>27</v>
+      </c>
+      <c r="D274">
+        <v>78</v>
+      </c>
+      <c r="E274">
+        <v>1438</v>
+      </c>
+      <c r="F274">
+        <v>1.05</v>
+      </c>
+      <c r="G274" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B275" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275" t="s">
+        <v>23</v>
+      </c>
+      <c r="D275">
+        <v>79</v>
+      </c>
+      <c r="E275">
+        <v>1441</v>
+      </c>
+      <c r="F275">
+        <v>0.95</v>
+      </c>
+      <c r="G275" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B276" t="s">
+        <v>22</v>
+      </c>
+      <c r="C276" t="s">
+        <v>25</v>
+      </c>
+      <c r="D276">
+        <v>80</v>
+      </c>
+      <c r="E276">
+        <v>1443</v>
+      </c>
+      <c r="F276">
+        <v>1.2</v>
+      </c>
+      <c r="G276" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B277" t="s">
+        <v>22</v>
+      </c>
+      <c r="C277" t="s">
+        <v>24</v>
+      </c>
+      <c r="D277">
+        <v>81</v>
+      </c>
+      <c r="E277">
+        <v>1446</v>
+      </c>
+      <c r="F277">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G277" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B278" t="s">
+        <v>22</v>
+      </c>
+      <c r="C278" t="s">
+        <v>26</v>
+      </c>
+      <c r="D278">
+        <v>82</v>
+      </c>
+      <c r="E278">
+        <v>1454</v>
+      </c>
+      <c r="F278">
+        <v>0.97</v>
+      </c>
+      <c r="G278" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B279" t="s">
+        <v>22</v>
+      </c>
+      <c r="C279" t="s">
+        <v>23</v>
+      </c>
+      <c r="D279">
+        <v>83</v>
+      </c>
+      <c r="E279">
+        <v>1620</v>
+      </c>
+      <c r="F279">
+        <v>1.27</v>
+      </c>
+      <c r="G279" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B280" t="s">
+        <v>22</v>
+      </c>
+      <c r="C280" t="s">
+        <v>24</v>
+      </c>
+      <c r="D280">
+        <v>84</v>
+      </c>
+      <c r="E280">
+        <v>1622</v>
+      </c>
+      <c r="F280">
+        <v>1.26</v>
+      </c>
+      <c r="G280" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B281" t="s">
+        <v>22</v>
+      </c>
+      <c r="C281" t="s">
+        <v>25</v>
+      </c>
+      <c r="D281">
+        <v>85</v>
+      </c>
+      <c r="E281">
+        <v>1625</v>
+      </c>
+      <c r="F281">
+        <v>1.38</v>
+      </c>
+      <c r="G281" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B282" t="s">
+        <v>22</v>
+      </c>
+      <c r="C282" t="s">
+        <v>27</v>
+      </c>
+      <c r="D282">
+        <v>86</v>
+      </c>
+      <c r="E282">
+        <v>1627</v>
+      </c>
+      <c r="F282">
+        <v>1.45</v>
+      </c>
+      <c r="G282" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B283" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283">
+        <v>87</v>
+      </c>
+      <c r="E283">
+        <v>1629</v>
+      </c>
+      <c r="F283">
+        <v>1.23</v>
+      </c>
+      <c r="G283" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B284" t="s">
+        <v>22</v>
+      </c>
+      <c r="C284" t="s">
+        <v>26</v>
+      </c>
+      <c r="D284">
+        <v>88</v>
+      </c>
+      <c r="E284">
+        <v>1632</v>
+      </c>
+      <c r="F284">
+        <v>1.38</v>
+      </c>
+      <c r="G284" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B285" t="s">
+        <v>22</v>
+      </c>
+      <c r="C285" t="s">
+        <v>25</v>
+      </c>
+      <c r="D285">
+        <v>89</v>
+      </c>
+      <c r="E285">
+        <v>1633</v>
+      </c>
+      <c r="F285">
+        <v>1.19</v>
+      </c>
+      <c r="G285" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B286" t="s">
+        <v>22</v>
+      </c>
+      <c r="C286" t="s">
+        <v>24</v>
+      </c>
+      <c r="D286">
+        <v>90</v>
+      </c>
+      <c r="E286">
+        <v>1635</v>
+      </c>
+      <c r="F286">
+        <v>1.45</v>
+      </c>
+      <c r="G286" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B287" t="s">
+        <v>22</v>
+      </c>
+      <c r="C287" t="s">
+        <v>26</v>
+      </c>
+      <c r="D287">
+        <v>91</v>
+      </c>
+      <c r="E287">
+        <v>1638</v>
+      </c>
+      <c r="F287">
+        <v>1.28</v>
+      </c>
+      <c r="G287" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B288" t="s">
+        <v>22</v>
+      </c>
+      <c r="C288" t="s">
+        <v>23</v>
+      </c>
+      <c r="D288" t="s">
+        <v>39</v>
+      </c>
+      <c r="E288">
+        <v>1639</v>
+      </c>
+      <c r="F288">
+        <v>1.06</v>
+      </c>
+      <c r="G288" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B289" t="s">
+        <v>22</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289">
+        <v>94</v>
+      </c>
+      <c r="E289">
+        <v>1643</v>
+      </c>
+      <c r="F289">
+        <v>1.28</v>
+      </c>
+      <c r="G289" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B290" t="s">
+        <v>22</v>
+      </c>
+      <c r="C290" t="s">
+        <v>27</v>
+      </c>
+      <c r="D290">
+        <v>95</v>
+      </c>
+      <c r="E290">
+        <v>1645</v>
+      </c>
+      <c r="F290">
+        <v>1.29</v>
+      </c>
+      <c r="G290" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291">
+        <v>65</v>
+      </c>
+      <c r="E291">
+        <v>1401</v>
+      </c>
+      <c r="F291">
+        <v>1.5</v>
+      </c>
+      <c r="G291" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B292" t="s">
+        <v>9</v>
+      </c>
+      <c r="C292" t="s">
+        <v>11</v>
+      </c>
+      <c r="D292">
+        <v>66</v>
+      </c>
+      <c r="E292">
+        <v>1406</v>
+      </c>
+      <c r="F292">
+        <v>1.08</v>
+      </c>
+      <c r="G292" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B293" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293">
+        <v>70</v>
+      </c>
+      <c r="E293">
+        <v>1420</v>
+      </c>
+      <c r="F293">
+        <v>1.65</v>
+      </c>
+      <c r="G293" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B294" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294" t="s">
+        <v>19</v>
+      </c>
+      <c r="D294">
+        <v>72</v>
+      </c>
+      <c r="E294">
+        <v>1436</v>
+      </c>
+      <c r="F294">
+        <v>1.27</v>
+      </c>
+      <c r="G294" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" t="s">
+        <v>17</v>
+      </c>
+      <c r="D295">
+        <v>74</v>
+      </c>
+      <c r="E295">
+        <v>1458</v>
+      </c>
+      <c r="F295">
+        <v>0.87</v>
+      </c>
+      <c r="G295" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B296" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296">
+        <v>77</v>
+      </c>
+      <c r="E296">
+        <v>1504</v>
+      </c>
+      <c r="F296">
+        <v>1.33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B297" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" t="s">
+        <v>19</v>
+      </c>
+      <c r="D297">
+        <v>84</v>
+      </c>
+      <c r="E297">
+        <v>1531</v>
+      </c>
+      <c r="F297">
+        <v>1.23</v>
+      </c>
+      <c r="G297" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/raw_data/vegetation/241111_TEMPEST2_water_potentials.xlsx
+++ b/data/raw_data/vegetation/241111_TEMPEST2_water_potentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/GitHub/COMPASS-DOE/tempest2_do/data/raw_data/vegetation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1373" documentId="8_{D643C4A0-451E-184F-B9F1-0C02D3C5DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC67255-B0AA-B84C-A606-2258214973A1}"/>
+  <xr:revisionPtr revIDLastSave="1378" documentId="8_{D643C4A0-451E-184F-B9F1-0C02D3C5DFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{060B7135-76C3-B545-859A-26B7C5810525}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{DD320B44-C0DC-1A4D-8312-11C1ED59FF4A}"/>
   </bookViews>
@@ -209,10 +209,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9031D31-7FEF-E44D-A258-C9AD138A55AA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,7 +584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45090</v>
       </c>
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45090</v>
       </c>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45090</v>
       </c>
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45090</v>
       </c>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45090</v>
       </c>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45090</v>
       </c>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45090</v>
       </c>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45090</v>
       </c>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45090</v>
       </c>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45090</v>
       </c>
@@ -837,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45090</v>
       </c>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45090</v>
       </c>
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45090</v>
       </c>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45090</v>
       </c>
@@ -952,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45090</v>
       </c>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45090</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45090</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45090</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45090</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45090</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45090</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45090</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45090</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45090</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45090</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45090</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45090</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45090</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45090</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45090</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45090</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45090</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45090</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45090</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45090</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45090</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45090</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45090</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45090</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45090</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45090</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45090</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45090</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45090</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45090</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45090</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45090</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>45090</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>45090</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>45090</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>45090</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45090</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>45090</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>45090</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>45090</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>45090</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>45090</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>45090</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>45090</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>45090</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>45090</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>45090</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>45090</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>45090</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>45090</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>45090</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>45090</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>45090</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>45090</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>45090</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>45090</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>45090</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>45090</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>45090</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>45090</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>45090</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>45090</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>45090</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>45090</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>45090</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>45090</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>45090</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>45090</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>45090</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>45090</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>45090</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>45090</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>45090</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>45090</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>45090</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>45090</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>45090</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>45090</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>45090</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>45090</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>45090</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>45090</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>45090</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>45090</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>45090</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>45090</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>45090</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>45090</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>45090</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>45090</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>45090</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>45090</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>45090</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>45090</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>45090</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>45090</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>45090</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>45090</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>45090</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>45090</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>45090</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>45090</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>45090</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>45090</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>45090</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>45090</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>45090</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>45090</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>45090</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>45090</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>45090</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>45090</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>45090</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>45090</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>45090</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>45090</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>45090</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>45090</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>45090</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>45090</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>45090</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>45090</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>45090</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>45090</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>45090</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>45090</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>45090</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>45090</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>45090</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>45090</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>45090</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>45090</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>45090</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>45090</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>45090</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>45090</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>45090</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>45090</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>45090</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>45090</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>45090</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>45090</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>45090</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>45090</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>45090</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>45090</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>45090</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>45090</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>45090</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>45090</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>45090</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>45090</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>45090</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>45090</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>45090</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>45090</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>45090</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>45090</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>45090</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>45090</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>45090</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>45090</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>45090</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>45090</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>45090</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>45090</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>45090</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>45090</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>45090</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>45090</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>45090</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>45090</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>45090</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>45090</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>45090</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>45090</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>45090</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>45090</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>45090</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>45090</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>45090</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>45090</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>45090</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>45090</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>45090</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>45090</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>45090</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>45090</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>45090</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>45090</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>45090</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>45090</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>45090</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>45090</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>45090</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>45090</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>45090</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>45090</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="D229">
         <v>35</v>
       </c>
-      <c r="E229" s="2">
+      <c r="E229">
         <v>1229</v>
       </c>
       <c r="F229">
@@ -5600,7 +5600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>45090</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>45090</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>45090</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>45090</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>45090</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>45090</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>45090</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>45090</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>45090</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>45090</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>45090</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>45090</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>45090</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>45090</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>45090</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>45090</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>45090</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>45090</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>45090</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>45090</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>45090</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>45090</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>45090</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>45090</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>54</v>
       </c>
       <c r="E253">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F253">
         <v>1.1499999999999999</v>
@@ -6149,7 +6149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>45090</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>55</v>
       </c>
       <c r="E254">
-        <v>302</v>
+        <v>1502</v>
       </c>
       <c r="G254" t="s">
         <v>36</v>
@@ -6172,7 +6172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>45090</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>45090</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>45090</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>45090</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>45090</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>45090</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>45090</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>45090</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>45090</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>45090</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>45090</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>45090</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>45090</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>45090</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>45090</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>45090</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>45090</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>45090</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>45090</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>45090</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>45090</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>45090</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>45090</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>45090</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>45090</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>45090</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>45090</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>45090</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>45090</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>45090</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>45090</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>45090</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>45090</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>45090</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>45090</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>45090</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>45090</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>45090</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>45090</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>45090</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>45090</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>45090</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>45090</v>
       </c>
@@ -7162,6 +7162,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C297" xr:uid="{D9031D31-7FEF-E44D-A258-C9AD138A55AA}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="F13"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
